--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92148\GithubProjects\SettlersOfCatan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Projet1.4\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01B86035-A759-445E-8783-B51875E49907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E742C0-47F0-46E8-BBAD-DF8300280AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="24105" yWindow="0" windowWidth="14400" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -59,7 +59,34 @@
     <t>0, -1, 1</t>
   </si>
   <si>
-    <t>adjacentHex</t>
+    <t>hex</t>
+  </si>
+  <si>
+    <t>adjacents</t>
+  </si>
+  <si>
+    <t>corner</t>
+  </si>
+  <si>
+    <t>adjacent hex</t>
+  </si>
+  <si>
+    <t>5, 0</t>
+  </si>
+  <si>
+    <t>0, 1</t>
+  </si>
+  <si>
+    <t>1, 2</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>3, 4</t>
+  </si>
+  <si>
+    <t>4, 5</t>
   </si>
 </sst>
 </file>
@@ -95,8 +122,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,23 +441,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.08984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -438,7 +469,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -449,7 +480,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -460,7 +491,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -471,7 +502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -482,7 +513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -493,7 +524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -504,47 +535,105 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="B12">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C11">
         <v>0</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>2</v>
       </c>
-      <c r="E12">
+      <c r="F11">
         <v>3</v>
       </c>
-      <c r="F12">
+      <c r="G11">
         <v>4</v>
       </c>
-      <c r="G12">
+      <c r="H11">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="J11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
         <v>2</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>4</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>5</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>6</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J15" s="1">
+        <v>3</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>4</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Projet1.4\SettlersOfCatan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92148\GithubProjects\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72E742C0-47F0-46E8-BBAD-DF8300280AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8EA3EC-7B62-48A0-8AD9-F12330F0326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24105" yWindow="0" windowWidth="14400" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="45984" yWindow="12960" windowWidth="17472" windowHeight="15096" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -87,6 +87,9 @@
   </si>
   <si>
     <t>4, 5</t>
+  </si>
+  <si>
+    <t>vertice</t>
   </si>
 </sst>
 </file>
@@ -441,24 +444,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -469,7 +472,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -480,7 +483,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -491,7 +494,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -502,7 +505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -513,7 +516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -524,7 +527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -535,7 +538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>0</v>
       </c>
@@ -561,7 +564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -572,7 +575,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -604,7 +607,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -612,7 +615,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J15" s="1">
         <v>3</v>
       </c>
@@ -620,7 +623,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J16" s="1">
         <v>4</v>
       </c>
@@ -628,12 +631,86 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
       <c r="J17" s="1">
         <v>5</v>
       </c>
       <c r="K17" s="1" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>17</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" t="s">
+        <v>1</v>
+      </c>
+      <c r="L20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J22" s="1">
+        <v>2</v>
+      </c>
+      <c r="K22" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J23" s="1">
+        <v>3</v>
+      </c>
+      <c r="K23" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J24" s="1">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="J25" s="1">
+        <v>5</v>
+      </c>
+      <c r="K25" t="s">
+        <v>6</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92148\GithubProjects\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B8EA3EC-7B62-48A0-8AD9-F12330F0326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3E819-DDDA-4DB3-8436-6B7C3B6AA5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="45984" yWindow="12960" windowWidth="17472" windowHeight="15096" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="46764" yWindow="120" windowWidth="16176" windowHeight="12516" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -444,16 +444,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
@@ -631,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J17" s="1">
         <v>5</v>
       </c>
@@ -639,15 +640,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="10:12" x14ac:dyDescent="0.35">
+      <c r="L19" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J20" s="1">
         <v>0</v>
       </c>
@@ -655,10 +662,13 @@
         <v>1</v>
       </c>
       <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J21" s="1">
         <v>1</v>
       </c>
@@ -666,10 +676,13 @@
         <v>2</v>
       </c>
       <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J22" s="1">
         <v>2</v>
       </c>
@@ -677,10 +690,13 @@
         <v>3</v>
       </c>
       <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J23" s="1">
         <v>3</v>
       </c>
@@ -688,10 +704,13 @@
         <v>4</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="10:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J24" s="1">
         <v>4</v>
       </c>
@@ -699,10 +718,13 @@
         <v>5</v>
       </c>
       <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="10:12" x14ac:dyDescent="0.35">
+        <v>4</v>
+      </c>
+      <c r="M24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="10:13" x14ac:dyDescent="0.35">
       <c r="J25" s="1">
         <v>5</v>
       </c>
@@ -710,6 +732,9 @@
         <v>6</v>
       </c>
       <c r="L25">
+        <v>5</v>
+      </c>
+      <c r="M25">
         <v>2</v>
       </c>
     </row>

--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92148\GithubProjects\SettlersOfCatan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Projet1.4\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6F3E819-DDDA-4DB3-8436-6B7C3B6AA5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EFF7FD-5B81-4AB9-8D3A-0AE3EDD70B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="46764" yWindow="120" windowWidth="16176" windowHeight="12516" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="26730" yWindow="0" windowWidth="11775" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -90,6 +90,72 @@
   </si>
   <si>
     <t>vertice</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>desert</t>
+  </si>
+  <si>
+    <t>wheat</t>
+  </si>
+  <si>
+    <t>whool</t>
+  </si>
+  <si>
+    <t>clay</t>
+  </si>
+  <si>
+    <t>ore</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>r</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>L = q*2+1</t>
+  </si>
+  <si>
+    <t>2*(L-1) for r time</t>
+  </si>
+  <si>
+    <t>q axis</t>
+  </si>
+  <si>
+    <t>r pos</t>
+  </si>
+  <si>
+    <t>r neg</t>
+  </si>
+  <si>
+    <t>r axis</t>
+  </si>
+  <si>
+    <t>s pos</t>
+  </si>
+  <si>
+    <t>s neg</t>
+  </si>
+  <si>
+    <t>s axis</t>
+  </si>
+  <si>
+    <t>q pos</t>
+  </si>
+  <si>
+    <t>q neg</t>
   </si>
 </sst>
 </file>
@@ -444,25 +510,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -473,7 +539,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -484,7 +550,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -495,7 +561,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -506,7 +572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -517,7 +583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -528,7 +594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>0</v>
       </c>
@@ -539,7 +605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>0</v>
       </c>
@@ -565,7 +631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -576,7 +642,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -608,7 +674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -616,7 +682,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J15" s="1">
         <v>3</v>
       </c>
@@ -624,7 +690,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J16" s="1">
         <v>4</v>
       </c>
@@ -632,7 +698,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J17" s="1">
         <v>5</v>
       </c>
@@ -640,7 +706,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>17</v>
       </c>
@@ -654,7 +720,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J20" s="1">
         <v>0</v>
       </c>
@@ -668,7 +734,28 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" t="s">
+        <v>25</v>
+      </c>
       <c r="J21" s="1">
         <v>1</v>
       </c>
@@ -682,7 +769,28 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
@@ -696,7 +804,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J23" s="1">
         <v>3</v>
       </c>
@@ -710,7 +818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J24" s="1">
         <v>4</v>
       </c>
@@ -724,7 +832,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="10:13" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="J25" s="1">
         <v>5</v>
       </c>
@@ -736,6 +844,112 @@
       </c>
       <c r="M25">
         <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="G30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+      <c r="F31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>34</v>
+      </c>
+      <c r="G32" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>37</v>
+      </c>
+      <c r="G34" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>-2</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>-3</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>-3</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Projet1.4\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68EFF7FD-5B81-4AB9-8D3A-0AE3EDD70B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF791F-A8EC-43CB-99C2-DBAE4D596640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26730" yWindow="0" windowWidth="11775" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="27255" yWindow="0" windowWidth="11250" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>0, 0, 0</t>
   </si>
@@ -95,18 +95,12 @@
     <t>resource</t>
   </si>
   <si>
-    <t>number</t>
-  </si>
-  <si>
     <t>desert</t>
   </si>
   <si>
     <t>wheat</t>
   </si>
   <si>
-    <t>whool</t>
-  </si>
-  <si>
     <t>clay</t>
   </si>
   <si>
@@ -156,6 +150,15 @@
   </si>
   <si>
     <t>q neg</t>
+  </si>
+  <si>
+    <t>wool</t>
+  </si>
+  <si>
+    <t>expansion</t>
+  </si>
+  <si>
+    <t>base game</t>
   </si>
 </sst>
 </file>
@@ -510,10 +513,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:M40"/>
+  <dimension ref="A1:M46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -739,22 +742,22 @@
         <v>18</v>
       </c>
       <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="G21" t="s">
         <v>23</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -771,26 +774,29 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
         <v>19</v>
       </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>4</v>
-      </c>
-      <c r="D22">
-        <v>4</v>
-      </c>
-      <c r="E22">
-        <v>3</v>
-      </c>
-      <c r="F22">
-        <v>3</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
       <c r="J22" s="1">
         <v>2</v>
       </c>
@@ -805,6 +811,30 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>6</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>5</v>
+      </c>
+      <c r="F23">
+        <v>5</v>
+      </c>
+      <c r="G23">
+        <v>6</v>
+      </c>
+      <c r="H23">
+        <v>40</v>
+      </c>
       <c r="J23" s="1">
         <v>3</v>
       </c>
@@ -848,7 +878,7 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -856,7 +886,7 @@
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>2</v>
@@ -864,92 +894,211 @@
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" t="s">
         <v>29</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>31</v>
-      </c>
-      <c r="G30" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
         <v>34</v>
       </c>
-      <c r="G32" t="s">
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>35</v>
+      </c>
+      <c r="G33" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>35</v>
+      </c>
+      <c r="G34" t="s">
         <v>37</v>
       </c>
-      <c r="G33" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="F34" t="s">
-        <v>37</v>
-      </c>
-      <c r="G34" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>1</v>
-      </c>
-      <c r="C38">
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1">
         <v>-2</v>
       </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>1</v>
-      </c>
-      <c r="C39">
+      <c r="D38" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2</v>
+      </c>
+      <c r="B39" s="1">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D39" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>3</v>
+      </c>
+      <c r="B40" s="1">
+        <v>4</v>
+      </c>
+      <c r="C40" s="1">
         <v>-3</v>
       </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40">
+      <c r="D40" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>4</v>
+      </c>
+      <c r="C41" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D41" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>3</v>
+      </c>
+      <c r="B42" s="1">
+        <v>4</v>
+      </c>
+      <c r="C42" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D42" s="1">
         <v>-3</v>
       </c>
-      <c r="D40">
-        <v>1</v>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>4</v>
+      </c>
+      <c r="B43" s="1">
+        <v>5</v>
+      </c>
+      <c r="C43" s="1">
+        <v>-4</v>
+      </c>
+      <c r="D43" s="1">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>4</v>
+      </c>
+      <c r="B44" s="1">
+        <v>5</v>
+      </c>
+      <c r="C44" s="1">
+        <v>-3</v>
+      </c>
+      <c r="D44" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>4</v>
+      </c>
+      <c r="B45" s="1">
+        <v>5</v>
+      </c>
+      <c r="C45" s="1">
+        <v>-2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>4</v>
+      </c>
+      <c r="B46" s="1">
+        <v>5</v>
+      </c>
+      <c r="C46" s="1">
+        <v>-1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>-4</v>
       </c>
     </row>
   </sheetData>

--- a/adjacentRules.xlsx
+++ b/adjacentRules.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maxim\Desktop\Projet1.4\SettlersOfCatan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\92148\GithubProjects\SettlersOfCatan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CF791F-A8EC-43CB-99C2-DBAE4D596640}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B570384D-239B-4285-8A4D-A3306258200C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27255" yWindow="0" windowWidth="11250" windowHeight="20985" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
+    <workbookView xWindow="46440" yWindow="14568" windowWidth="16176" windowHeight="12516" xr2:uid="{FF03602B-6CBE-4EDF-AA70-C15BD3C3834A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -513,25 +513,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8BBA882-6C62-484D-9B19-A0FA6EEF794D}">
-  <dimension ref="A1:M46"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49:K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -542,7 +542,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -553,7 +553,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -564,7 +564,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,7 +575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -586,7 +586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -597,7 +597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B8">
         <v>0</v>
       </c>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.35">
       <c r="C11">
         <v>0</v>
       </c>
@@ -634,7 +634,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>7</v>
       </c>
@@ -645,7 +645,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -677,7 +677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J14" s="1">
         <v>2</v>
       </c>
@@ -685,7 +685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J15" s="1">
         <v>3</v>
       </c>
@@ -693,7 +693,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.35">
       <c r="J16" s="1">
         <v>4</v>
       </c>
@@ -701,7 +701,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J17" s="1">
         <v>5</v>
       </c>
@@ -709,7 +709,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J19" t="s">
         <v>17</v>
       </c>
@@ -723,7 +723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J20" s="1">
         <v>0</v>
       </c>
@@ -737,7 +737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -772,7 +772,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>40</v>
       </c>
@@ -810,7 +810,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>39</v>
       </c>
@@ -848,7 +848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J24" s="1">
         <v>4</v>
       </c>
@@ -862,7 +862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="J25" s="1">
         <v>5</v>
       </c>
@@ -876,7 +876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -884,7 +884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>25</v>
       </c>
@@ -892,7 +892,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>26</v>
       </c>
@@ -903,7 +903,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B30" t="s">
         <v>27</v>
       </c>
@@ -914,7 +914,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
         <v>28</v>
       </c>
@@ -925,7 +925,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="F32" t="s">
         <v>32</v>
       </c>
@@ -933,7 +933,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F33" t="s">
         <v>35</v>
       </c>
@@ -941,7 +941,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="F34" t="s">
         <v>35</v>
       </c>
@@ -949,7 +949,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="1" t="s">
         <v>24</v>
@@ -961,7 +961,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>1</v>
       </c>
@@ -975,7 +975,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>2</v>
       </c>
@@ -989,7 +989,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>2</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>3</v>
       </c>
@@ -1017,7 +1017,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>3</v>
       </c>
@@ -1031,7 +1031,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>3</v>
       </c>
@@ -1045,7 +1045,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>4</v>
       </c>
@@ -1059,7 +1059,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>4</v>
       </c>
@@ -1073,7 +1073,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>4</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>4</v>
       </c>
@@ -1099,6 +1099,102 @@
       </c>
       <c r="D46" s="1">
         <v>-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>3</v>
+      </c>
+      <c r="D49" s="1">
+        <v>4</v>
+      </c>
+      <c r="E49" s="1">
+        <v>5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>8</v>
+      </c>
+      <c r="H49" s="1">
+        <v>9</v>
+      </c>
+      <c r="I49" s="1">
+        <v>10</v>
+      </c>
+      <c r="J49" s="1">
+        <v>11</v>
+      </c>
+      <c r="K49" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>2</v>
+      </c>
+      <c r="I50" s="1">
+        <v>2</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1</v>
+      </c>
+      <c r="K50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:11" x14ac:dyDescent="0.35">
+      <c r="B51" s="1">
+        <v>1</v>
+      </c>
+      <c r="C51" s="1">
+        <v>2</v>
+      </c>
+      <c r="D51" s="1">
+        <v>3</v>
+      </c>
+      <c r="E51" s="1">
+        <v>3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>3</v>
+      </c>
+      <c r="G51" s="1">
+        <v>3</v>
+      </c>
+      <c r="H51" s="1">
+        <v>3</v>
+      </c>
+      <c r="I51" s="1">
+        <v>3</v>
+      </c>
+      <c r="J51" s="1">
+        <v>3</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
